--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44871</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45261</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45548</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>46029</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45174</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45281</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44634</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44398</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44607</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45232</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44764</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>44641</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45819.46664351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45909.67291666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45751.40921296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45937.53306712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45107</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45988.51075231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45988.51458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45988.51401620371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>45203</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44491.60883101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44284</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44342</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44711</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44628</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44525</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44679.4424537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44601.63337962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44733</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44391</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44432</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44678</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44330</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44449</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44264</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44540</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44636.62225694444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44880.63131944444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44722.38283564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44571</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44608.3350462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44676.89392361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44662</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44413</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44714.36796296296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44238</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44645</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44683.85064814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44764</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44623.66508101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44761.67310185185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44791</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>45274.65821759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44847.42292824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44671</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45180</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44865.61626157408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>45232</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44826.31732638889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44340</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44552.39164351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44847.4725462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44637</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44739.47778935185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44739</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45735.47672453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44610.6044212963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44610.60694444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44610</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45516.65678240741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45639.52766203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45019</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45736</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44961</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44662</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45370.39363425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45019</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45749</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45219.3633912037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45798.44658564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45223</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45628.62780092593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45638</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45887.50710648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45803.46421296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45453</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45506</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44875.32902777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44936</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45887.50528935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45743</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44977.60398148148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45889.65506944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45235</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44987</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45603</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45812</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45890.57650462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45812</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45896.43211805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45897.60268518519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45623.44805555556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45274.65981481481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45617.60714120371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44999</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45819.39668981481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>45279</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45279.73480324074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45903.42475694444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>45456</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45623</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45908.66902777777</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45908.6750925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45251</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45735.46513888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45125</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45692</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44743</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45279.74216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45833.66190972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44340</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>45617.6058449074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45833</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45929.65755787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45929.66028935185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45929.63734953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45926.65934027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45119</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>45929.64620370371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>45929.65053240741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>45929.65461805555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>45645</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>44645</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45931.50824074074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44648.55094907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45219.45563657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>45839.55408564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45933.64113425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44635.68010416667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44635.69003472223</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45735.47221064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45937.54346064815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45938.48452546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45257</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45516.63484953704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45945.55697916666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45945.55349537037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45397</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45947.63462962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44880</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44880</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45833.43606481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45174</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45950.36666666667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45833</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45027.37611111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>45027.37814814815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45860</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45953.53826388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45952</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44825.68005787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45469</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45953.52658564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45953.5362037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45953.54679398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44999</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45729.57048611111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45516.64833333333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45874</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>45219.46137731482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45761.58875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45761.595</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45761.62535879629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>44958</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44582</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45561</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44600.46858796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45966.4027199074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45832.6050462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45929.64188657407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45973.58966435185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45973.52245370371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45414</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45595</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45042</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45279.7046412037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45974.60678240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45442.72315972222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45553</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45980</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>45160</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44901</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44659.48399305555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44595.68612268518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45988.51334490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>46030.57869212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45749</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44370</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44509</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45077.53309027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44914.43560185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44717.72328703704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44824</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45219.45475694445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>46006.64915509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44680.71219907407</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45560</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45110</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44636</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45628</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45443.46515046297</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44986.61635416667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44899.78981481482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44405</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44636</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>44636.63550925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>44840</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>44574</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>44893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44664</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45674</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45110</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45019</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45019</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45042</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44900.62505787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45761.60011574074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45400.58168981481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44606.61012731482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44236</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45761.62292824074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44873.55695601852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45735</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44377</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44978.59603009259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44523</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45532.44508101852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45579</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44874.39711805555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44901.38724537037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45264</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45042</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45457</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44265</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45553</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45639.53532407407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>44601</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>44904.45761574074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>44523</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44623.65987268519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45033</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44253</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>44253</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>44498</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45603</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44792</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>44874.61123842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44708.4474537037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44908</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44755</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44523</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44655.92976851852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45169</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44342</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44482.43167824074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45705.39998842592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45713.69668981482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44658</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44903</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45281.69546296296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44978</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44336</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45398</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45603.38747685185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45366</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44994</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44537</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44722.38237268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45282.36827546296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45296.45457175926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45223</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44552.38523148148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44999</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45153</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45448.33162037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45196</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44249</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45397</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44657</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45378.57865740741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45783</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45786</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45792.60494212963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45506</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45545</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44871</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45261</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45548</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>46029</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45174</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45281</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44634</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44398</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44607</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45232</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44764</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>44641</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45819.46664351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45909.67291666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45751.40921296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45937.53306712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45107</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45988.51075231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45988.51458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45988.51401620371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>45203</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44491.60883101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44284</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44342</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44711</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44628</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44525</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44679.4424537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44601.63337962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44733</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44391</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44594</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44516</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44432</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44242</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44678</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44330</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44449</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44264</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44698</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44540</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>44636.62225694444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         <v>44371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44692</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>44880.63131944444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44722.38283564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44571</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44608.3350462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44676.89392361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44662</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44413</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>44714.36796296296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44238</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44645</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44272</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44699</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>44683.85064814815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         <v>44764</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>44623.66508101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44249</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         <v>44761.67310185185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>44791</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>45274.65821759259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44847.42292824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44671</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45180</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>44865.61626157408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>45232</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>44826.31732638889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44340</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44552.39164351852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44847.4725462963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44637</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44739.47778935185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>44739</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>45735.47672453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>45110</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>44559</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         <v>44610.6044212963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44610.60694444444</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44610</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45516.65678240741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45639.52766203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45019</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45736</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44961</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>44662</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45072</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45705</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45370.39363425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45019</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45749</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45219.3633912037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45798.44658564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45223</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45628.62780092593</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45638</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45887.50710648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45803.46421296296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45453</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>45506</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>44875.32902777778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>44936</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9206,7 +9206,7 @@
         <v>45887.50528935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>45595</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>45743</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44977.60398148148</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>45467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>45889.65506944444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>45235</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44987</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>45603</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>45812</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45890.57650462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>45812</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>45735</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>45896.43211805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45897.60268518519</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45623.44805555556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45274.65981481481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45617.60714120371</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44999</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>45819.39668981481</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>45279</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45279.73480324074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45903.42475694444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>45456</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>44635</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45623</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45908.66902777777</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45908.6750925926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45251</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>45735.46513888889</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>45908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45001</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45125</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>45692</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44743</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45279.74216435185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>45833.66190972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44816</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44340</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>45617.6058449074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>45833</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11588,7 +11588,7 @@
         <v>45929.65755787037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11645,7 +11645,7 @@
         <v>45929.66028935185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>45929.63734953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>45926.65934027778</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45119</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>45929.64620370371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>45929.65053240741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>45929.65461805555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>45645</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>44645</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45931.50824074074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44648.55094907407</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45219.45563657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>45839.55408564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45933.64113425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44635.68010416667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44635.69003472223</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>45735.47221064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>45937.54346064815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12681,7 +12681,7 @@
         <v>45938.48452546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12738,7 +12738,7 @@
         <v>45257</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>45516.63484953704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12852,7 +12852,7 @@
         <v>45945.55697916666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12909,7 +12909,7 @@
         <v>45945.55349537037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12966,7 +12966,7 @@
         <v>45397</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13023,7 +13023,7 @@
         <v>45947.63462962963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44908</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13142,7 +13142,7 @@
         <v>44880</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13199,7 +13199,7 @@
         <v>44880</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45833.43606481481</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45174</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>45950.36666666667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>45833</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>45027.37611111111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>45027.37814814815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45860</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45953.53826388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45952</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44825.68005787037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45469</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>45607</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>45953.52658564815</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>45953.5362037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45953.54679398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>44999</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>45729.57048611111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45516.64833333333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45874</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>45219.46137731482</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>45761.58875</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>45761.595</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>45761.62535879629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14577,7 +14577,7 @@
         <v>44958</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>44582</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45561</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>44812</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>44600.46858796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45966.4027199074</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>45832.6050462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45929.64188657407</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45973.58966435185</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45973.52245370371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45414</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45595</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45042</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45279.7046412037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45974.60678240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45442.72315972222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15504,7 +15504,7 @@
         <v>45979</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15561,7 +15561,7 @@
         <v>45979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15618,7 +15618,7 @@
         <v>45979</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15675,7 +15675,7 @@
         <v>45553</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15737,7 +15737,7 @@
         <v>45980</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>45160</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15851,7 +15851,7 @@
         <v>45160</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44901</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44659.48399305555</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44595.68612268518</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45988.51334490741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16141,7 +16141,7 @@
         <v>46030.57869212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45749</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44370</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44509</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45077.53309027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>44914.43560185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45042</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45743</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>44717.72328703704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>44824</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45219.45475694445</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>46006.64915509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>44680.71219907407</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45560</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45110</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44636</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45628</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45443.46515046297</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44986.61635416667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>44899.78981481482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44405</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44636</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>44636.63550925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>44840</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>44574</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>44893</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44664</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45674</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>44935</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>45110</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45019</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
         <v>45019</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18042,7 +18042,7 @@
         <v>45042</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44900.62505787037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>45761.60011574074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>45083</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>45400.58168981481</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>44606.61012731482</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>44236</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>45761.62292824074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>44873.55695601852</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>45735</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>44377</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>44978.59603009259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>44523</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>45532.44508101852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45579</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>44874.39711805555</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>44901.38724537037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45218</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45264</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45042</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45457</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44265</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45553</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45639.53532407407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>44601</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>44904.45761574074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>44523</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44623.65987268519</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19658,7 +19658,7 @@
         <v>45033</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>44556</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44253</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>44253</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>44498</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45603</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44792</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>45222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>44874.61123842592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44708.4474537037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20233,7 +20233,7 @@
         <v>44908</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20290,7 +20290,7 @@
         <v>44755</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20347,7 +20347,7 @@
         <v>44523</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44655.92976851852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45169</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20528,7 +20528,7 @@
         <v>44342</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>44482.43167824074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45705.39998842592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45713.69668981482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44658</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>44903</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45281.69546296296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>44978</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45028</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44336</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45398</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45603.38747685185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45366</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44994</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>44537</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44722.38237268518</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45282.36827546296</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45296.45457175926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45223</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44552.38523148148</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44999</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45153</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45448.33162037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45196</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>44249</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45397</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44657</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45378.57865740741</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45783</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45786</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45792.60494212963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45506</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>45545</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z362"/>
+  <dimension ref="A1:Z363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44871</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45261</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,14 +1289,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 657-2026</t>
+          <t>A 39032-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46029</v>
+        <v>45548</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,14 +1308,19 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1342,6 +1347,94 @@
         <v>4</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Granbarkgnagare
+Grovticka
+Terpentinmossa
+Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 39032-2024 artfynd.xlsx", "A 39032-2024")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 39032-2024 karta.png", "A 39032-2024")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 39032-2024 FSC-klagomål.docx", "A 39032-2024")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 39032-2024 FSC-klagomål mail.docx", "A 39032-2024")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 39032-2024 tillsynsbegäran.docx", "A 39032-2024")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 39032-2024 tillsynsbegäran mail.docx", "A 39032-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 657-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46029</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Tjäder
 Fläcknycklar
@@ -1349,128 +1442,35 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 657-2026 artfynd.xlsx", "A 657-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 657-2026 karta.png", "A 657-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 657-2026 FSC-klagomål.docx", "A 657-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 657-2026 FSC-klagomål mail.docx", "A 657-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 657-2026 tillsynsbegäran.docx", "A 657-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 657-2026 tillsynsbegäran mail.docx", "A 657-2026")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/fåglar/A 657-2026 prioriterade fågelarter.docx", "A 657-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 39032-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45548</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VÄSTERÅS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Granbarkgnagare
-Grovticka
-Terpentinmossa
-Vågbandad barkbock</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 39032-2024 artfynd.xlsx", "A 39032-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 39032-2024 karta.png", "A 39032-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 39032-2024 FSC-klagomål.docx", "A 39032-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 39032-2024 FSC-klagomål mail.docx", "A 39032-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 39032-2024 tillsynsbegäran.docx", "A 39032-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 39032-2024 tillsynsbegäran mail.docx", "A 39032-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45174</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45281</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44634</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44398</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44607</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45232</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44764</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>44641</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2641,14 +2641,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 28489-2025</t>
+          <t>A 43119-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45819.46664351852</v>
+        <v>45909.67291666667</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,29 +2660,24 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
@@ -2690,129 +2685,134 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 43119-2025 artfynd.xlsx", "A 43119-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 43119-2025 karta.png", "A 43119-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 43119-2025 FSC-klagomål.docx", "A 43119-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 43119-2025 FSC-klagomål mail.docx", "A 43119-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 43119-2025 tillsynsbegäran.docx", "A 43119-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 43119-2025 tillsynsbegäran mail.docx", "A 43119-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 28489-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45819.46664351852</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
           <t>Bollvitmossa</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 28489-2025 artfynd.xlsx", "A 28489-2025")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 28489-2025 karta.png", "A 28489-2025")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 28489-2025 FSC-klagomål.docx", "A 28489-2025")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 28489-2025 FSC-klagomål mail.docx", "A 28489-2025")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 28489-2025 tillsynsbegäran.docx", "A 28489-2025")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 28489-2025 tillsynsbegäran mail.docx", "A 28489-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 43119-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45909.67291666667</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>VÄSTERÅS</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Ask</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 43119-2025 artfynd.xlsx", "A 43119-2025")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 43119-2025 karta.png", "A 43119-2025")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 43119-2025 FSC-klagomål.docx", "A 43119-2025")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 43119-2025 FSC-klagomål mail.docx", "A 43119-2025")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 43119-2025 tillsynsbegäran.docx", "A 43119-2025")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 43119-2025 tillsynsbegäran mail.docx", "A 43119-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45751.40921296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45937.53306712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2986,14 +2986,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 29787-2023</t>
+          <t>A 59140-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45107</v>
+        <v>45988.51075231482</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3045,308 +3045,308 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
+          <t>Fiskgjuse</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 59140-2025 artfynd.xlsx", "A 59140-2025")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 59140-2025 karta.png", "A 59140-2025")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 59140-2025 FSC-klagomål.docx", "A 59140-2025")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 59140-2025 FSC-klagomål mail.docx", "A 59140-2025")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 59140-2025 tillsynsbegäran.docx", "A 59140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 59140-2025 tillsynsbegäran mail.docx", "A 59140-2025")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/fåglar/A 59140-2025 prioriterade fågelarter.docx", "A 59140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 59144-2025</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45988.51458333333</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 59144-2025 artfynd.xlsx", "A 59144-2025")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 59144-2025 karta.png", "A 59144-2025")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 59144-2025 FSC-klagomål.docx", "A 59144-2025")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 59144-2025 FSC-klagomål mail.docx", "A 59144-2025")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 59144-2025 tillsynsbegäran.docx", "A 59144-2025")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 59144-2025 tillsynsbegäran mail.docx", "A 59144-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 59143-2025</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45988.51401620371</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 59143-2025 artfynd.xlsx", "A 59143-2025")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 59143-2025 karta.png", "A 59143-2025")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 59143-2025 FSC-klagomål.docx", "A 59143-2025")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 59143-2025 FSC-klagomål mail.docx", "A 59143-2025")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 59143-2025 tillsynsbegäran.docx", "A 59143-2025")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 59143-2025 tillsynsbegäran mail.docx", "A 59143-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 29787-2023</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
           <t>Kopparödla</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 29787-2023 artfynd.xlsx", "A 29787-2023")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 29787-2023 karta.png", "A 29787-2023")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 29787-2023 FSC-klagomål.docx", "A 29787-2023")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 29787-2023 FSC-klagomål mail.docx", "A 29787-2023")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 29787-2023 tillsynsbegäran.docx", "A 29787-2023")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 29787-2023 tillsynsbegäran mail.docx", "A 29787-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 59140-2025</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>45988.51075231482</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>VÄSTERÅS</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Fiskgjuse</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 59140-2025 artfynd.xlsx", "A 59140-2025")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 59140-2025 karta.png", "A 59140-2025")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 59140-2025 FSC-klagomål.docx", "A 59140-2025")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 59140-2025 FSC-klagomål mail.docx", "A 59140-2025")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 59140-2025 tillsynsbegäran.docx", "A 59140-2025")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 59140-2025 tillsynsbegäran mail.docx", "A 59140-2025")</f>
-        <v/>
-      </c>
-      <c r="Z29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/fåglar/A 59140-2025 prioriterade fågelarter.docx", "A 59140-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A 59144-2025</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="n">
-        <v>45988.51458333333</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>VÄSTERÅS</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 59144-2025 artfynd.xlsx", "A 59144-2025")</f>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 59144-2025 karta.png", "A 59144-2025")</f>
-        <v/>
-      </c>
-      <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 59144-2025 FSC-klagomål.docx", "A 59144-2025")</f>
-        <v/>
-      </c>
-      <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 59144-2025 FSC-klagomål mail.docx", "A 59144-2025")</f>
-        <v/>
-      </c>
-      <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 59144-2025 tillsynsbegäran.docx", "A 59144-2025")</f>
-        <v/>
-      </c>
-      <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 59144-2025 tillsynsbegäran mail.docx", "A 59144-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 59143-2025</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45988.51401620371</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>VÄSTERÅS</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/artfynd/A 59143-2025 artfynd.xlsx", "A 59143-2025")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/kartor/A 59143-2025 karta.png", "A 59143-2025")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomål/A 59143-2025 FSC-klagomål.docx", "A 59143-2025")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/klagomålsmail/A 59143-2025 FSC-klagomål mail.docx", "A 59143-2025")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsyn/A 59143-2025 tillsynsbegäran.docx", "A 59143-2025")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1980/tillsynsmail/A 59143-2025 tillsynsbegäran mail.docx", "A 59143-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>45203</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44491.60883101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44284</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44342</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44711</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44628</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44525</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44679.4424537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4093,14 +4093,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 6585-2022</t>
+          <t>A 25878-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44601.63337962963</v>
+        <v>44733</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4150,14 +4150,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25878-2022</t>
+          <t>A 6585-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44733</v>
+        <v>44601.63337962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4207,14 +4207,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 36507-2021</t>
+          <t>A 65678-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44391</v>
+        <v>44516</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4264,14 +4264,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 65678-2021</t>
+          <t>A 43355-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44516</v>
+        <v>44432</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4321,14 +4321,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43355-2021</t>
+          <t>A 7738-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44432</v>
+        <v>44594</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4378,14 +4378,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7738-2022</t>
+          <t>A 19164-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44594</v>
+        <v>44691</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4397,8 +4397,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4435,14 +4440,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19164-2022</t>
+          <t>A 36507-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44691</v>
+        <v>44391</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4454,13 +4459,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4504,7 +4504,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44678</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44263</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44330</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44449</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44264</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44540</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44636.62225694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44880.63131944444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44551</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44722.38283564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44608.3350462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44676.89392361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44413</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44371</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44714.36796296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44645</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44272</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44683.85064814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44764</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44623.66508101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6366,14 +6366,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30468-2022</t>
+          <t>A 9149-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44761.67310185185</v>
+        <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6387,11 +6387,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>14.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6428,14 +6428,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9149-2021</t>
+          <t>A 30468-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44249</v>
+        <v>44761.67310185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6449,11 +6449,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>14.8</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>44791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44607</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45274.65821759259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44847.42292824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44671</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>45232</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6837,14 +6837,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46156-2022</t>
+          <t>A 50193-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44847.4725462963</v>
+        <v>44865.61626157408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>45180</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6951,14 +6951,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24834-2021</t>
+          <t>A 41219-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44340</v>
+        <v>44826.31732638889</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7008,14 +7008,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12258-2022</t>
+          <t>A 46156-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44637</v>
+        <v>44847.4725462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7065,14 +7065,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26556-2022</t>
+          <t>A 73601-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44739.47778935185</v>
+        <v>44552.39164351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7122,14 +7122,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 26568-2022</t>
+          <t>A 12258-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44739</v>
+        <v>44637</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7179,14 +7179,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30096-2023</t>
+          <t>A 26556-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45110</v>
+        <v>44739.47778935185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7198,13 +7198,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7241,14 +7236,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13241-2025</t>
+          <t>A 26568-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45735.47672453704</v>
+        <v>44739</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7261,7 +7256,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7298,14 +7293,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 74314-2021</t>
+          <t>A 24834-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44559</v>
+        <v>44340</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7318,7 +7313,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7355,14 +7350,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8357-2022</t>
+          <t>A 30096-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44610.6044212963</v>
+        <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7380,7 +7375,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7417,14 +7412,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 8362-2022</t>
+          <t>A 13241-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44610.60694444444</v>
+        <v>45735.47672453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7436,13 +7431,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7479,14 +7469,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8346-2022</t>
+          <t>A 74314-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44610</v>
+        <v>44559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7536,14 +7526,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 50193-2022</t>
+          <t>A 8357-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44865.61626157408</v>
+        <v>44610.6044212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7555,8 +7545,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7593,14 +7588,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41219-2022</t>
+          <t>A 8362-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44826.31732638889</v>
+        <v>44610.60694444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7612,8 +7607,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7650,14 +7650,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32868-2024</t>
+          <t>A 8346-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45516.65678240741</v>
+        <v>44610</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7707,14 +7707,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 73601-2021</t>
+          <t>A 32868-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44552.39164351852</v>
+        <v>45516.65678240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7764,14 +7764,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59740-2024</t>
+          <t>A 22675-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45639.52766203704</v>
+        <v>45786</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7821,14 +7821,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 15355-2023</t>
+          <t>A 56016-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45019</v>
+        <v>45973.58966435185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7878,14 +7878,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13632-2025</t>
+          <t>A 55980-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45736</v>
+        <v>45973.52245370371</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>45887.50710648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7992,14 +7992,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5724-2023</t>
+          <t>A 15355-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44961</v>
+        <v>45019</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8049,14 +8049,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 23569-2025</t>
+          <t>A 59740-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45792.60494212963</v>
+        <v>45639.52766203704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8106,14 +8106,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42659-2021</t>
+          <t>A 38822-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44428</v>
+        <v>45887.50528935185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8163,14 +8163,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 15622-2022</t>
+          <t>A 23569-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44662</v>
+        <v>45792.60494212963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8220,14 +8220,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31623-2024</t>
+          <t>A 49232-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45506</v>
+        <v>45595</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8241,11 +8241,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8282,14 +8282,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38822-2025</t>
+          <t>A 56300-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45887.50528935185</v>
+        <v>45974.60678240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8339,14 +8339,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49232-2024</t>
+          <t>A 39411-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45595</v>
+        <v>45889.65506944444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8360,7 +8360,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -8401,14 +8401,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38345-2024</t>
+          <t>A 31623-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45545</v>
+        <v>45506</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8420,8 +8420,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8458,14 +8463,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 39411-2025</t>
+          <t>A 13632-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45889.65506944444</v>
+        <v>45736</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8477,13 +8482,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8520,14 +8520,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 22832-2023</t>
+          <t>A 38345-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45072</v>
+        <v>45545</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8577,14 +8577,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24546-2025</t>
+          <t>A 5724-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45798.44658564815</v>
+        <v>44961</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8634,14 +8634,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7437-2025</t>
+          <t>A 39624-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45705</v>
+        <v>45890.57650462963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8653,8 +8653,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8691,14 +8696,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 39624-2025</t>
+          <t>A 42659-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45890.57650462963</v>
+        <v>44428</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8710,13 +8715,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 10912-2024</t>
+          <t>A 15622-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45370.39363425926</v>
+        <v>44662</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8810,14 +8810,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 38538-2023</t>
+          <t>A 57102-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45162</v>
+        <v>45979</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8867,14 +8867,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25568-2025</t>
+          <t>A 24546-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45803.46421296296</v>
+        <v>45798.44658564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8886,13 +8886,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8929,14 +8924,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 15329-2023</t>
+          <t>A 40547-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45019</v>
+        <v>45896.43211805556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8949,7 +8944,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8986,14 +8981,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16074-2025</t>
+          <t>A 57104-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45749</v>
+        <v>45979</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9006,7 +9001,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9043,14 +9038,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40547-2025</t>
+          <t>A 57114-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45896.43211805556</v>
+        <v>45979</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9063,7 +9058,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9100,14 +9095,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51147-2023</t>
+          <t>A 40886-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45219.3633912037</v>
+        <v>45897.60268518519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9120,7 +9115,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9157,14 +9152,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 15046-2025</t>
+          <t>A 25568-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45743</v>
+        <v>45803.46421296296</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9176,8 +9171,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>17.7</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9214,14 +9214,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40886-2025</t>
+          <t>A 22832-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45897.60268518519</v>
+        <v>45072</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9271,14 +9271,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51951-2023</t>
+          <t>A 57327-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45223</v>
+        <v>45980</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9291,7 +9291,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9328,14 +9328,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 56945-2024</t>
+          <t>A 7437-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45628.62780092593</v>
+        <v>45705</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9385,14 +9385,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56076-2023</t>
+          <t>A 10912-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45235</v>
+        <v>45370.39363425926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9404,13 +9404,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>37.8</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9447,14 +9442,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 59536-2024</t>
+          <t>A 38538-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45638</v>
+        <v>45162</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9467,7 +9462,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9504,14 +9499,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50996-2024</t>
+          <t>A 41920-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45603</v>
+        <v>45903.42475694444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9524,7 +9519,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9561,14 +9556,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 23455-2024</t>
+          <t>A 15046-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45453</v>
+        <v>45743</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9581,7 +9576,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>17.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9618,14 +9613,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27394-2025</t>
+          <t>A 15329-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45812</v>
+        <v>45019</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9638,7 +9633,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9675,14 +9670,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41920-2025</t>
+          <t>A 16074-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45903.42475694444</v>
+        <v>45749</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9695,7 +9690,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9732,14 +9727,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31618-2024</t>
+          <t>A 51147-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45506</v>
+        <v>45219.3633912037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9751,13 +9746,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9794,14 +9784,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 27290-2025</t>
+          <t>A 51951-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45812</v>
+        <v>45223</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9814,7 +9804,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9851,14 +9841,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52764-2022</t>
+          <t>A 56076-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44875.32902777778</v>
+        <v>45235</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9870,8 +9860,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>37.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9908,14 +9903,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1700-2023</t>
+          <t>A 56945-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44936</v>
+        <v>45628.62780092593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9928,7 +9923,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9965,14 +9960,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54537-2024</t>
+          <t>A 42894-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45617.60714120371</v>
+        <v>45908.66902777777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9984,13 +9979,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10027,14 +10017,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 8541-2023</t>
+          <t>A 42899-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44977.60398148148</v>
+        <v>45908.6750925926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10047,7 +10037,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10084,14 +10074,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 25850-2024</t>
+          <t>A 50996-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45467</v>
+        <v>45603</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10103,13 +10093,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10146,14 +10131,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 28443-2025</t>
+          <t>A 13228-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45819.39668981481</v>
+        <v>45735.46513888889</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10165,13 +10150,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10208,14 +10188,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 42894-2025</t>
+          <t>A 59536-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45908.66902777777</v>
+        <v>45638</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10228,7 +10208,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10265,14 +10245,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 42899-2025</t>
+          <t>A 27394-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45908.6750925926</v>
+        <v>45812</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10285,7 +10265,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10322,14 +10302,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62299-2025</t>
+          <t>A 27290-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46006.64915509259</v>
+        <v>45812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10342,7 +10322,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10379,14 +10359,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 11137-2023</t>
+          <t>A 23455-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44987</v>
+        <v>45453</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10399,7 +10379,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10436,14 +10416,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 13228-2025</t>
+          <t>A 42898-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45735.46513888889</v>
+        <v>45908</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10456,7 +10436,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10493,14 +10473,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 42898-2025</t>
+          <t>A 31618-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45908</v>
+        <v>45506</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10512,8 +10492,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10550,14 +10535,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13338-2025</t>
+          <t>A 52764-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45735</v>
+        <v>44875.32902777778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10570,7 +10555,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10607,14 +10592,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31569-2025</t>
+          <t>A 1700-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45833.66190972222</v>
+        <v>44936</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10627,7 +10612,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10664,14 +10649,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 55801-2024</t>
+          <t>A 54537-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45623.44805555556</v>
+        <v>45617.60714120371</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10683,8 +10668,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10721,14 +10711,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 63483-2023</t>
+          <t>A 28443-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45274.65981481481</v>
+        <v>45819.39668981481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10740,8 +10730,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10778,14 +10773,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12612-2023</t>
+          <t>A 8541-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44999</v>
+        <v>44977.60398148148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10798,7 +10793,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10835,14 +10830,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 54536-2024</t>
+          <t>A 25850-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45617.6058449074</v>
+        <v>45467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10856,11 +10851,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10897,14 +10892,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31587-2025</t>
+          <t>A 11137-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45833</v>
+        <v>44987</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10917,7 +10912,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10954,14 +10949,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 64201-2023</t>
+          <t>A 13338-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45279</v>
+        <v>45735</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10974,7 +10969,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11011,14 +11006,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 64207-2023</t>
+          <t>A 47101-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45279.73480324074</v>
+        <v>45929.65755787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11031,7 +11026,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11068,14 +11063,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 24121-2024</t>
+          <t>A 47107-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45456</v>
+        <v>45929.66028935185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11088,7 +11083,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11125,14 +11120,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11950-2022</t>
+          <t>A 47076-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44635</v>
+        <v>45929.63734953704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11145,7 +11140,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11182,14 +11177,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32834-2025</t>
+          <t>A 46799-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45839.55408564815</v>
+        <v>45926.65934027778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11201,8 +11196,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11239,14 +11239,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55973-2024</t>
+          <t>A 55801-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45623</v>
+        <v>45623.44805555556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11296,14 +11296,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58577-2023</t>
+          <t>A 31569-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45251</v>
+        <v>45833.66190972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11353,14 +11353,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 47101-2025</t>
+          <t>A 47089-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45929.65755787037</v>
+        <v>45929.64620370371</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11410,14 +11410,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47107-2025</t>
+          <t>A 47092-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45929.66028935185</v>
+        <v>45929.65053240741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11467,14 +11467,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12950-2023</t>
+          <t>A 47096-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45001</v>
+        <v>45929.65461805555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11524,14 +11524,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 47076-2025</t>
+          <t>A 63483-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45929.63734953704</v>
+        <v>45274.65981481481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11581,14 +11581,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 46799-2025</t>
+          <t>A 12612-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45926.65934027778</v>
+        <v>44999</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11600,13 +11600,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11643,14 +11638,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 47089-2025</t>
+          <t>A 47640-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45929.64620370371</v>
+        <v>45931.50824074074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11663,7 +11658,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11700,14 +11695,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 47092-2025</t>
+          <t>A 54536-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45929.65053240741</v>
+        <v>45617.6058449074</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11719,8 +11714,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11757,14 +11757,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 47096-2025</t>
+          <t>A 31587-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45929.65461805555</v>
+        <v>45833</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11814,14 +11814,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 47640-2025</t>
+          <t>A 64201-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45931.50824074074</v>
+        <v>45279</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11871,14 +11871,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 32851-2024</t>
+          <t>A 64207-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45516.63484953704</v>
+        <v>45279.73480324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11928,14 +11928,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 32998-2023</t>
+          <t>A 24121-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45125</v>
+        <v>45456</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11947,13 +11947,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11990,14 +11985,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 5363-2025</t>
+          <t>A 11950-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45692</v>
+        <v>44635</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12010,7 +12005,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12047,14 +12042,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 27722-2022</t>
+          <t>A 55973-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44743</v>
+        <v>45623</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12067,7 +12062,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12104,14 +12099,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 64208-2023</t>
+          <t>A 48339-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45279.74216435185</v>
+        <v>45933.64113425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12124,7 +12119,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>13.9</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12161,14 +12156,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53836-2022</t>
+          <t>A 58577-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44880</v>
+        <v>45251</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12181,7 +12176,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12218,14 +12213,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53833-2022</t>
+          <t>A 32834-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44880</v>
+        <v>45839.55408564815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12238,7 +12233,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12275,14 +12270,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 48339-2025</t>
+          <t>A 48948-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45933.64113425926</v>
+        <v>45937.54346064815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12295,7 +12290,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12332,14 +12327,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 31361-2025</t>
+          <t>A 49240-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45833.43606481481</v>
+        <v>45938.48452546296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12352,7 +12347,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12389,14 +12384,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 31578-2025</t>
+          <t>A 12950-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45833</v>
+        <v>45001</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12409,7 +12404,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12446,14 +12441,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48948-2025</t>
+          <t>A 32998-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45937.54346064815</v>
+        <v>45125</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12465,8 +12460,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12503,14 +12503,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 39127-2022</t>
+          <t>A 5363-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44816</v>
+        <v>45692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12560,14 +12560,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49240-2025</t>
+          <t>A 27722-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45938.48452546296</v>
+        <v>44743</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12617,14 +12617,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35788-2025</t>
+          <t>A 64208-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45860</v>
+        <v>45279.74216435185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>13.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12674,14 +12674,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 24838-2021</t>
+          <t>A 32851-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44340</v>
+        <v>45516.63484953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12731,14 +12731,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 32053-2023</t>
+          <t>A 50565-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45119</v>
+        <v>45945.55697916666</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12750,13 +12750,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12793,14 +12788,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 32861-2024</t>
+          <t>A 50564-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45516.64833333333</v>
+        <v>45945.55349537037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12813,7 +12808,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.1</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12850,14 +12845,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 61059-2024</t>
+          <t>A 53836-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45645</v>
+        <v>44880</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12870,7 +12865,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12907,14 +12902,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 13376-2022</t>
+          <t>A 53833-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44645</v>
+        <v>44880</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12927,7 +12922,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12964,14 +12959,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50565-2025</t>
+          <t>A 39127-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45945.55697916666</v>
+        <v>44816</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12984,7 +12979,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13021,14 +13016,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50564-2025</t>
+          <t>A 31361-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45945.55349537037</v>
+        <v>45833.43606481481</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13041,7 +13036,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13078,14 +13073,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 37022-2025</t>
+          <t>A 24838-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45874</v>
+        <v>44340</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13098,7 +13093,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13135,14 +13130,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13614-2022</t>
+          <t>A 51200-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44648.55094907407</v>
+        <v>45947.63462962963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13154,8 +13149,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13192,14 +13192,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51200-2025</t>
+          <t>A 51307-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45947.63462962963</v>
+        <v>45950.36666666667</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13211,13 +13211,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13254,14 +13249,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 51223-2023</t>
+          <t>A 31578-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45219.45563657407</v>
+        <v>45833</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13274,7 +13269,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -13311,14 +13306,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51307-2025</t>
+          <t>A 52270-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45950.36666666667</v>
+        <v>45953.53826388889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13331,7 +13326,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13368,14 +13363,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52270-2025</t>
+          <t>A 35788-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45953.53826388889</v>
+        <v>45860</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13388,7 +13383,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13425,14 +13420,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11983-2022</t>
+          <t>A 32053-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44635.68010416667</v>
+        <v>45119</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13444,8 +13439,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13482,14 +13482,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 11989-2022</t>
+          <t>A 59142-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44635.69003472223</v>
+        <v>45988.51334490741</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13501,8 +13501,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13539,14 +13544,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13239-2025</t>
+          <t>A 61059-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45735.47221064815</v>
+        <v>45645</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13559,7 +13564,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13596,14 +13601,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 31106-2025</t>
+          <t>A 13376-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45832.6050462963</v>
+        <v>44645</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13616,7 +13621,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13660,7 +13665,7 @@
         <v>45953.52658564815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13717,7 +13722,7 @@
         <v>45953.5362037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13774,7 +13779,7 @@
         <v>45953.54679398148</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13824,14 +13829,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 49234-2024</t>
+          <t>A 13614-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45595</v>
+        <v>44648.55094907407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13843,13 +13848,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13886,14 +13886,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 982-2026</t>
+          <t>A 51223-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46030.57869212963</v>
+        <v>45219.45563657407</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13905,13 +13905,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13948,14 +13943,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7701-2026</t>
+          <t>A 32861-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46059</v>
+        <v>45516.64833333333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13968,7 +13963,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14005,14 +14000,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 59765-2023</t>
+          <t>A 11983-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45257</v>
+        <v>44635.68010416667</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14025,7 +14020,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>6.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14062,14 +14057,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 7797-2026</t>
+          <t>A 11989-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46062.60050925926</v>
+        <v>44635.69003472223</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14082,7 +14077,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14119,14 +14114,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54659-2025</t>
+          <t>A 13239-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45966.4027199074</v>
+        <v>45735.47221064815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14139,7 +14134,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14176,14 +14171,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47082-2025</t>
+          <t>A 37022-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45929.64188657407</v>
+        <v>45874</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14196,7 +14191,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14233,14 +14228,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 14799-2024</t>
+          <t>A 54659-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45397</v>
+        <v>45966.4027199074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14253,7 +14248,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14290,14 +14285,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61069-2022</t>
+          <t>A 47082-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44908</v>
+        <v>45929.64188657407</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14310,7 +14305,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.7</v>
+        <v>2.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14347,14 +14342,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 56016-2025</t>
+          <t>A 31106-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45973.58966435185</v>
+        <v>45832.6050462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14367,7 +14362,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14404,14 +14399,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 55980-2025</t>
+          <t>A 59765-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45973.52245370371</v>
+        <v>45257</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14424,7 +14419,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14461,14 +14456,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 41344-2023</t>
+          <t>A 49234-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45174</v>
+        <v>45595</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14480,8 +14475,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14518,14 +14518,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 56300-2025</t>
+          <t>A 15907-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45974.60678240741</v>
+        <v>45749</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14575,14 +14575,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 16035-2023</t>
+          <t>A 14799-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45027.37611111111</v>
+        <v>45397</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14632,14 +14632,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 16037-2023</t>
+          <t>A 61069-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45027.37814814815</v>
+        <v>44908</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14652,7 +14652,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14689,14 +14689,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 41114-2022</t>
+          <t>A 41344-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44825.68005787037</v>
+        <v>45174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14746,14 +14746,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 57102-2025</t>
+          <t>A 16035-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45979</v>
+        <v>45027.37611111111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14803,14 +14803,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 26475-2024</t>
+          <t>A 16037-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45469</v>
+        <v>45027.37814814815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14822,13 +14822,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14865,14 +14860,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 57104-2025</t>
+          <t>A 41114-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45979</v>
+        <v>44825.68005787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14885,7 +14880,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14922,14 +14917,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 57114-2025</t>
+          <t>A 26475-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45979</v>
+        <v>45469</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14941,8 +14936,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14979,14 +14979,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 52027-2025</t>
+          <t>A 52015-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45952</v>
+        <v>45607</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14998,13 +14998,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15041,14 +15036,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 52015-2024</t>
+          <t>A 12649-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45607</v>
+        <v>44999</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15061,7 +15056,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15098,14 +15093,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 57327-2025</t>
+          <t>A 12229-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45980</v>
+        <v>45729.57048611111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15118,7 +15113,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15155,14 +15150,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12649-2023</t>
+          <t>A 51230-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44999</v>
+        <v>45219.46137731482</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15175,7 +15170,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15212,14 +15207,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 12229-2025</t>
+          <t>A 18119-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45729.57048611111</v>
+        <v>45761.58875</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15232,7 +15227,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15269,14 +15264,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 8871-2026</t>
+          <t>A 18126-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46066</v>
+        <v>45761.595</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15289,7 +15284,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15326,14 +15321,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 59142-2025</t>
+          <t>A 18157-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45988.51334490741</v>
+        <v>45761.62535879629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15345,13 +15340,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15388,14 +15378,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 8870-2026</t>
+          <t>A 5123-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46066</v>
+        <v>44958</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15408,7 +15398,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15445,14 +15435,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 51230-2023</t>
+          <t>A 3118-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45219.46137731482</v>
+        <v>44582</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15464,8 +15454,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15502,14 +15497,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 18119-2025</t>
+          <t>A 41849-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45761.58875</v>
+        <v>45561</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15522,7 +15517,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15559,14 +15554,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 18126-2025</t>
+          <t>A 38381-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45761.595</v>
+        <v>44812</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15579,7 +15574,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15616,14 +15611,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 18157-2025</t>
+          <t>A 6277-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45761.62535879629</v>
+        <v>44600.46858796296</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15636,7 +15631,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15673,14 +15668,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 5123-2023</t>
+          <t>A 17258-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44958</v>
+        <v>45414</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15693,7 +15688,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15730,14 +15725,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3118-2022</t>
+          <t>A 18465-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44582</v>
+        <v>45042</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15749,13 +15744,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15792,14 +15782,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 41849-2024</t>
+          <t>A 64202-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45561</v>
+        <v>45279.7046412037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15812,7 +15802,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15849,14 +15839,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 38381-2022</t>
+          <t>A 62299-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44812</v>
+        <v>46006.64915509259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15869,7 +15859,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15906,14 +15896,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 6277-2022</t>
+          <t>A 21827-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44600.46858796296</v>
+        <v>45442.72315972222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15925,8 +15915,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>2.8</v>
+        <v>4.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15963,14 +15958,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 15907-2025</t>
+          <t>A 39810-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45749</v>
+        <v>45553</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15982,8 +15977,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16020,14 +16020,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 17258-2024</t>
+          <t>A 38432-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45414</v>
+        <v>45160</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16077,14 +16077,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18465-2023</t>
+          <t>A 38436-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45042</v>
+        <v>45160</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16134,14 +16134,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 64202-2023</t>
+          <t>A 58395-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45279.7046412037</v>
+        <v>44901</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16191,14 +16191,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21827-2024</t>
+          <t>A 15316-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45442.72315972222</v>
+        <v>44659.48399305555</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,13 +16210,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16253,14 +16248,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 39810-2024</t>
+          <t>A 5604-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45553</v>
+        <v>44595.68612268518</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,13 +16267,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16315,14 +16305,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 38432-2023</t>
+          <t>A 982-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45160</v>
+        <v>46030.57869212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,8 +16324,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16372,14 +16367,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 38436-2023</t>
+          <t>A 7701-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45160</v>
+        <v>46059</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16392,7 +16387,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -16429,14 +16424,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58395-2022</t>
+          <t>A 7797-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44901</v>
+        <v>46062.60050925926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16449,7 +16444,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16486,14 +16481,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 15316-2022</t>
+          <t>A 31880-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44659.48399305555</v>
+        <v>44370</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16506,7 +16501,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16543,14 +16538,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 5604-2022</t>
+          <t>A 63851-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44595.68612268518</v>
+        <v>44509</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16563,7 +16558,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.6</v>
+        <v>11</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16600,14 +16595,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 31880-2021</t>
+          <t>A 23641-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44370</v>
+        <v>45077.53309027778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16620,7 +16615,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16657,14 +16652,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 63851-2021</t>
+          <t>A 52027-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44509</v>
+        <v>45952</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16676,8 +16671,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>11</v>
+        <v>2.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16714,14 +16714,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 23641-2023</t>
+          <t>A 8871-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45077.53309027778</v>
+        <v>46066</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16778,7 +16778,7 @@
         <v>44914.43560185185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16828,14 +16828,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 18457-2023</t>
+          <t>A 8870-2026</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45042</v>
+        <v>46066</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16885,14 +16885,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 15050-2025</t>
+          <t>A 18457-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45743</v>
+        <v>45042</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16942,14 +16942,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 22978-2022</t>
+          <t>A 15050-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44717.72328703704</v>
+        <v>45743</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16999,14 +16999,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 40782-2022</t>
+          <t>A 22978-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44824</v>
+        <v>44717.72328703704</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17018,13 +17018,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17061,14 +17056,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 51219-2023</t>
+          <t>A 9327-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45219.45475694445</v>
+        <v>46070.65644675926</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17080,8 +17075,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17118,14 +17118,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 17725-2022</t>
+          <t>A 40782-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44680.71219907407</v>
+        <v>44824</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17137,8 +17137,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17175,14 +17180,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 41469-2024</t>
+          <t>A 51219-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45560</v>
+        <v>45219.45475694445</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17195,7 +17200,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17232,14 +17237,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 32350-2023</t>
+          <t>A 17725-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45110</v>
+        <v>44680.71219907407</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17252,7 +17257,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17289,14 +17294,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 12131-2022</t>
+          <t>A 41469-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44636</v>
+        <v>45560</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17309,7 +17314,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17346,14 +17351,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 56902-2024</t>
+          <t>A 32350-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45628</v>
+        <v>45110</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17366,7 +17371,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -17403,14 +17408,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21926-2024</t>
+          <t>A 12131-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45443.46515046297</v>
+        <v>44636</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17423,7 +17428,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17460,14 +17465,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 10225-2023</t>
+          <t>A 56902-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44986.61635416667</v>
+        <v>45628</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17480,7 +17485,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17517,14 +17522,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 57873-2022</t>
+          <t>A 21926-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44899.78981481482</v>
+        <v>45443.46515046297</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17537,7 +17542,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17574,14 +17579,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 38329-2021</t>
+          <t>A 10225-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44405</v>
+        <v>44986.61635416667</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17594,7 +17599,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17631,14 +17636,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 15350-2023</t>
+          <t>A 57873-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45019</v>
+        <v>44899.78981481482</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17651,7 +17656,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17688,14 +17693,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 12143-2022</t>
+          <t>A 38329-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44636</v>
+        <v>44405</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17707,13 +17712,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>12.9</v>
+        <v>3.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17750,14 +17750,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 12148-2022</t>
+          <t>A 15350-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44636.63550925926</v>
+        <v>45019</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17769,13 +17769,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17812,14 +17807,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 44695-2022</t>
+          <t>A 12143-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44840</v>
+        <v>44636</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17831,8 +17826,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>1.1</v>
+        <v>12.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17869,14 +17869,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1652-2022</t>
+          <t>A 12148-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44574</v>
+        <v>44636.63550925926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17888,8 +17888,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17926,14 +17931,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 56532-2022</t>
+          <t>A 44695-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44893</v>
+        <v>44840</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17946,7 +17951,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17983,14 +17988,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 15889-2022</t>
+          <t>A 1652-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44664</v>
+        <v>44574</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18003,7 +18008,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -18040,14 +18045,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 2523-2025</t>
+          <t>A 56532-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45674</v>
+        <v>44893</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18060,7 +18065,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -18097,14 +18102,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 1594-2023</t>
+          <t>A 15889-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44935</v>
+        <v>44664</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18117,7 +18122,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>10.9</v>
+        <v>0.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -18154,14 +18159,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 32341-2023</t>
+          <t>A 2523-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45110</v>
+        <v>45674</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18174,7 +18179,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -18211,14 +18216,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 15330-2023</t>
+          <t>A 1594-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45019</v>
+        <v>44935</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18231,7 +18236,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.4</v>
+        <v>10.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -18268,14 +18273,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 15348-2023</t>
+          <t>A 32341-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45019</v>
+        <v>45110</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18288,7 +18293,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -18325,14 +18330,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 18482-2023</t>
+          <t>A 15330-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45042</v>
+        <v>45019</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18345,7 +18350,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -18382,14 +18387,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 58085-2022</t>
+          <t>A 15348-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44900.62505787037</v>
+        <v>45019</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18402,7 +18407,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -18439,14 +18444,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 18131-2025</t>
+          <t>A 18482-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45761.60011574074</v>
+        <v>45042</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18459,7 +18464,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -18496,14 +18501,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 24572-2023</t>
+          <t>A 58085-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45083</v>
+        <v>44900.62505787037</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18516,7 +18521,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18553,14 +18558,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 15273-2024</t>
+          <t>A 18131-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45400.58168981481</v>
+        <v>45761.60011574074</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18573,7 +18578,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18610,14 +18615,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 7378-2022</t>
+          <t>A 24572-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44606.61012731482</v>
+        <v>45083</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18630,7 +18635,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18667,14 +18672,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 18155-2025</t>
+          <t>A 15273-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45761.62292824074</v>
+        <v>45400.58168981481</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18687,7 +18692,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18724,14 +18729,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 52199-2022</t>
+          <t>A 7378-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44873.55695601852</v>
+        <v>44606.61012731482</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18744,7 +18749,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18781,14 +18786,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 13388-2025</t>
+          <t>A 18155-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45735</v>
+        <v>45761.62292824074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18801,7 +18806,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18838,14 +18843,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 33512-2021</t>
+          <t>A 52199-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44377</v>
+        <v>44873.55695601852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18858,7 +18863,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18895,14 +18900,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 8800-2023</t>
+          <t>A 13388-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44978.59603009259</v>
+        <v>45735</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18915,7 +18920,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18952,14 +18957,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 67352-2021</t>
+          <t>A 33512-2021</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44523</v>
+        <v>44377</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18971,13 +18976,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G300" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -19014,14 +19014,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 35700-2024</t>
+          <t>A 8800-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45532.44508101852</v>
+        <v>44978.59603009259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -19071,14 +19071,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 45804-2024</t>
+          <t>A 67352-2021</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45579</v>
+        <v>44523</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19090,8 +19090,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G302" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -19128,14 +19133,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 52396-2022</t>
+          <t>A 35700-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44874.39711805555</v>
+        <v>45532.44508101852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19148,7 +19153,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -19185,14 +19190,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 58231-2022</t>
+          <t>A 45804-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44901.38724537037</v>
+        <v>45579</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19205,7 +19210,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -19242,14 +19247,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 50948-2023</t>
+          <t>A 52396-2022</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45218</v>
+        <v>44874.39711805555</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19262,7 +19267,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -19299,14 +19304,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 61258-2023</t>
+          <t>A 58231-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45264</v>
+        <v>44901.38724537037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19319,7 +19324,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -19356,14 +19361,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 18467-2023</t>
+          <t>A 50948-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45042</v>
+        <v>45218</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19376,7 +19381,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -19413,14 +19418,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 24402-2024</t>
+          <t>A 61258-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45457</v>
+        <v>45264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19433,7 +19438,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -19470,14 +19475,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 11752-2021</t>
+          <t>A 18467-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44265</v>
+        <v>45042</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19490,7 +19495,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19527,14 +19532,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 39817-2024</t>
+          <t>A 24402-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45553</v>
+        <v>45457</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19546,13 +19551,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19589,14 +19589,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 59747-2024</t>
+          <t>A 11752-2021</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45639.53532407407</v>
+        <v>44265</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19609,7 +19609,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19646,14 +19646,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 6603-2022</t>
+          <t>A 39817-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44601</v>
+        <v>45553</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19665,8 +19665,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G312" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19703,14 +19708,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 59143-2022</t>
+          <t>A 59747-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44904.45761574074</v>
+        <v>45639.53532407407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19723,7 +19728,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>7.3</v>
+        <v>0.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19760,14 +19765,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 67350-2021</t>
+          <t>A 6603-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44523</v>
+        <v>44601</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19779,13 +19784,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G314" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19822,14 +19822,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 10496-2022</t>
+          <t>A 59143-2022</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44623.65987268519</v>
+        <v>44904.45761574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19841,13 +19841,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19884,14 +19879,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 16844-2023</t>
+          <t>A 67350-2021</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45033</v>
+        <v>44523</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19903,8 +19898,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19941,14 +19941,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 73994-2021</t>
+          <t>A 10496-2022</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44556</v>
+        <v>44623.65987268519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19960,8 +19960,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19998,14 +20003,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 9967-2021</t>
+          <t>A 16844-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44253</v>
+        <v>45033</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20018,7 +20023,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -20055,14 +20060,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 9969-2021</t>
+          <t>A 73994-2021</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44253</v>
+        <v>44556</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20075,7 +20080,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -20112,14 +20117,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 61249-2021</t>
+          <t>A 9967-2021</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44498</v>
+        <v>44253</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20132,7 +20137,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -20169,14 +20174,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 50987-2024</t>
+          <t>A 9969-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45603</v>
+        <v>44253</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20189,7 +20194,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -20226,14 +20231,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 34461-2022</t>
+          <t>A 61249-2021</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44792</v>
+        <v>44498</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20246,7 +20251,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>9.6</v>
+        <v>4.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -20283,14 +20288,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 51572-2023</t>
+          <t>A 50987-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45222</v>
+        <v>45603</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20303,7 +20308,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -20340,14 +20345,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 52569-2022</t>
+          <t>A 34461-2022</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44874.61123842592</v>
+        <v>44792</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20360,7 +20365,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.6</v>
+        <v>9.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -20397,14 +20402,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 21761-2022</t>
+          <t>A 51572-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44708.4474537037</v>
+        <v>45222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20416,13 +20421,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -20459,14 +20459,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 60949-2022</t>
+          <t>A 52569-2022</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44908</v>
+        <v>44874.61123842592</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -20516,14 +20516,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 29746-2022</t>
+          <t>A 21761-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44755</v>
+        <v>44708.4474537037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20535,8 +20535,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G327" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20573,14 +20578,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 67353-2021</t>
+          <t>A 60949-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44523</v>
+        <v>44908</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20592,13 +20597,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G328" t="n">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20635,14 +20635,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 14691-2022</t>
+          <t>A 29746-2022</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44655.92976851852</v>
+        <v>44755</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20692,14 +20692,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 40304-2023</t>
+          <t>A 67353-2021</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45169</v>
+        <v>44523</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20713,11 +20713,11 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2.1</v>
+        <v>7.6</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20754,14 +20754,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 25340-2021</t>
+          <t>A 14691-2022</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44342</v>
+        <v>44655.92976851852</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20774,7 +20774,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20811,14 +20811,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 56980-2021</t>
+          <t>A 40304-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44482.43167824074</v>
+        <v>45169</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20830,8 +20830,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20868,14 +20873,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 7439-2025</t>
+          <t>A 25340-2021</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45705.39998842592</v>
+        <v>44342</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20888,7 +20893,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20925,14 +20930,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 9103-2025</t>
+          <t>A 56980-2021</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45713.69668981482</v>
+        <v>44482.43167824074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20945,7 +20950,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20982,14 +20987,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 15201-2022</t>
+          <t>A 7439-2025</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44658</v>
+        <v>45705.39998842592</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21039,14 +21044,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 58960-2022</t>
+          <t>A 9103-2025</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>44903</v>
+        <v>45713.69668981482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21059,7 +21064,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -21096,14 +21101,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 64714-2023</t>
+          <t>A 15201-2022</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45281.69546296296</v>
+        <v>44658</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21116,7 +21121,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -21153,14 +21158,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 8727-2023</t>
+          <t>A 58960-2022</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44978</v>
+        <v>44903</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21170,11 +21175,6 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>VÄSTERÅS</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G338" t="n">
@@ -21215,14 +21215,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 16214-2023</t>
+          <t>A 64714-2023</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45028</v>
+        <v>45281.69546296296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -21272,14 +21272,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 24229-2021</t>
+          <t>A 8727-2023</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44336</v>
+        <v>44978</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21293,11 +21293,11 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G340" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -21334,14 +21334,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 14851-2024</t>
+          <t>A 16214-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>45398</v>
+        <v>45028</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -21391,14 +21391,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 51004-2024</t>
+          <t>A 24229-2021</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45603.38747685185</v>
+        <v>44336</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21410,8 +21410,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G342" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -21448,14 +21453,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 10546-2024</t>
+          <t>A 14851-2024</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45366</v>
+        <v>45398</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21505,14 +21510,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 11691-2023</t>
+          <t>A 51004-2024</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>44994</v>
+        <v>45603.38747685185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21525,7 +21530,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -21562,14 +21567,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 70642-2021</t>
+          <t>A 10546-2024</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44537</v>
+        <v>45366</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21582,7 +21587,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -21619,14 +21624,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 23765-2022</t>
+          <t>A 11691-2023</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44722.38237268518</v>
+        <v>44994</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21638,13 +21643,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G346" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -21681,14 +21681,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 64793-2023</t>
+          <t>A 70642-2021</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45282.36827546296</v>
+        <v>44537</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -21738,14 +21738,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 401-2024</t>
+          <t>A 23765-2022</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45296.45457175926</v>
+        <v>44722.38237268518</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21757,8 +21757,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G348" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -21795,14 +21800,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 17808-2023</t>
+          <t>A 64793-2023</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>45037</v>
+        <v>45282.36827546296</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21814,13 +21819,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F349" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G349" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21857,14 +21857,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 51933-2023</t>
+          <t>A 401-2024</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45223</v>
+        <v>45296.45457175926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21877,7 +21877,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21914,14 +21914,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 73597-2021</t>
+          <t>A 17808-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>44552.38523148148</v>
+        <v>45037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21933,8 +21933,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G351" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21971,14 +21976,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 12618-2023</t>
+          <t>A 51933-2023</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>44999</v>
+        <v>45223</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21991,7 +21996,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -22028,14 +22033,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 36641-2023</t>
+          <t>A 73597-2021</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45153</v>
+        <v>44552.38523148148</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22048,7 +22053,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -22085,14 +22090,14 @@
     <row r="354" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 22700-2024</t>
+          <t>A 12618-2023</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45448.33162037037</v>
+        <v>44999</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22105,7 +22110,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
@@ -22142,14 +22147,14 @@
     <row r="355" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>A 46189-2023</t>
+          <t>A 36641-2023</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>45196</v>
+        <v>45153</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22162,7 +22167,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H355" t="n">
         <v>0</v>
@@ -22199,14 +22204,14 @@
     <row r="356" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>A 9152-2021</t>
+          <t>A 22700-2024</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>44249</v>
+        <v>45448.33162037037</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22218,13 +22223,8 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G356" t="n">
-        <v>14.8</v>
+        <v>0.4</v>
       </c>
       <c r="H356" t="n">
         <v>0</v>
@@ -22261,14 +22261,14 @@
     <row r="357" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>A 14800-2024</t>
+          <t>A 46189-2023</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>45397</v>
+        <v>45196</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H357" t="n">
         <v>0</v>
@@ -22318,14 +22318,14 @@
     <row r="358" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>A 14926-2022</t>
+          <t>A 9152-2021</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>44657</v>
+        <v>44249</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22337,8 +22337,13 @@
           <t>VÄSTERÅS</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G358" t="n">
-        <v>1.6</v>
+        <v>14.8</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
@@ -22375,14 +22380,14 @@
     <row r="359" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>A 59520-2024</t>
+          <t>A 14800-2024</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>45638</v>
+        <v>45397</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22395,7 +22400,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
@@ -22432,14 +22437,14 @@
     <row r="360" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>A 12289-2024</t>
+          <t>A 14926-2022</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>45378.57865740741</v>
+        <v>44657</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22452,7 +22457,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>15.4</v>
+        <v>1.6</v>
       </c>
       <c r="H360" t="n">
         <v>0</v>
@@ -22489,14 +22494,14 @@
     <row r="361" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>A 21694-2025</t>
+          <t>A 59520-2024</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
-        <v>45783</v>
+        <v>45638</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22543,17 +22548,17 @@
       </c>
       <c r="R361" s="2" t="inlineStr"/>
     </row>
-    <row r="362">
+    <row r="362" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>A 22675-2025</t>
+          <t>A 12289-2024</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
-        <v>45786</v>
+        <v>45378.57865740741</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22566,7 +22571,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>5.9</v>
+        <v>15.4</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
@@ -22599,6 +22604,63 @@
         <v>0</v>
       </c>
       <c r="R362" s="2" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>A 21694-2025</t>
+        </is>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="C363" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>VÄSTERÅS</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>4</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44871</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45261</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45548</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>46029</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45174</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45281</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44634</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44398</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44607</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45232</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44764</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>44641</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45819.46664351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45909.67291666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45751.40921296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45937.53306712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45107</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45988.51075231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45988.51458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45988.51401620371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>45203</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44491.60883101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44284</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44342</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44711</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44628</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44525</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44679.4424537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44601.63337962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44733</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44391</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44678</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44263</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44330</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44449</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44264</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44540</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44636.62225694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44880.63131944444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44551</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44722.38283564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44608.3350462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44676.89392361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44413</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44714.36796296296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44645</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44272</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44683.85064814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44764</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44623.66508101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44761.67310185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44607</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45274.65821759259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44847.42292824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44671</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44865.61626157408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44826.31732638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45232</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44552.39164351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44847.4725462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45180</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44340</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44637</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44739.47778935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45735.47672453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44610.6044212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44610.60694444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44610</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45516.65678240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45639.52766203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45019</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45736</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44961</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44662</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45072</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45370.39363425926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45019</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45628.62780092593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45219.3633912037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45638</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44875.32902777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44936</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45453</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45506</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44977.60398148148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45467</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44987</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45617.60714120371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>45887.50710648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>45735</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>45819.39668981481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45623.44805555556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45274.65981481481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45887.50528935185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44999</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45595</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45279</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45279.73480324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45889.65506944444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45456</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44635</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45623</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45890.57650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45251</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45833.66190972222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45896.43211805556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>45897.60268518519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>45617.6058449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45833</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45125</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44743</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45279.74216435185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45903.42475694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45839.55408564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45908.66902777777</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45908.6750925926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44816</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44340</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45735.46513888889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45908</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45516.63484953704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45119</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45645</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44648.55094907407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44880</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44880</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>45833.43606481481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>45219.45563657407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44635.68010416667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44635.69003472223</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>45735.47221064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45860</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45929.65755787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45929.66028935185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45929.63734953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45926.65934027778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45929.64620370371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45929.65053240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45929.65461805555</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45516.64833333333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45931.50824074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45257</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45933.64113425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45397</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44908</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45937.54346064815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45832.6050462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45938.48452546296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45027.37611111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45027.37814814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>44825.68005787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45607</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>44999</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45729.57048611111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45945.55697916666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45945.55349537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45947.63462962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45950.36666666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45219.46137731482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45761.58875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45761.595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45761.62535879629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44958</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44582</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45953.53826388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45561</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44812</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44600.46858796296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45953.52658564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45953.5362037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>45953.54679398148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45414</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45279.7046412037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45442.72315972222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45553</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45966.4027199074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45929.64188657407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44659.48399305555</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44595.68612268518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45973.58966435185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45973.52245370371</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45974.60678240741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45979</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45979</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45980</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>45988.51334490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44370</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45749</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44509</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45077.53309027778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44914.43560185185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45042</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45743</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44717.72328703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44824</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45219.45475694445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44680.71219907407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45560</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>46006.64915509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45110</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44636</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45443.46515046297</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44986.61635416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44899.78981481482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44405</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>44636.63550925926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44574</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44893</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44664</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45674</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>46059</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>45110</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45019</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>46062.60050925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45042</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44900.62505787037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>45761.60011574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>45952</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>45083</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>46066</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>45400.58168981481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>46066</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>44606.61012731482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>45761.62292824074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>44873.55695601852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>45735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>46070.65644675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44377</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44978.59603009259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44523</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45532.44508101852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>44874.39711805555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44901.38724537037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>46030.57869212963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45218</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45264</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45042</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45457</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44265</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45553</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45639.53532407407</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>44601</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>44904.45761574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44523</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44623.65987268519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45033</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44556</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>44253</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>44253</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44498</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45603</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>44792</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>44874.61123842592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44708.4474537037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44908</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44755</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44523</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44655.92976851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44482.43167824074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45705.39998842592</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45713.69668981482</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44658</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44903</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45281.69546296296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>44978</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45028</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44336</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45398</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>45603.38747685185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45366</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44722.38237268518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45282.36827546296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45296.45457175926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45223</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>44552.38523148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45448.33162037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>45196</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45397</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44657</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45638</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45378.57865740741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45786</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45792.60494212963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45506</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45798.44658564815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45803.46421296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45235</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45812</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>45812</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>

--- a/Översikt VÄSTERÅS.xlsx
+++ b/Översikt VÄSTERÅS.xlsx
@@ -575,7 +575,7 @@
         <v>44684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44523</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44871</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -999,7 +999,7 @@
         <v>45089</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45261</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45460</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>45548</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>46029</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45223</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45174</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45281</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>45740</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>44634</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>45463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>44336</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>44398</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44607</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>45232</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>44764</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>44641</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45819.46664351852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>45909.67291666667</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
         <v>45751.40921296296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>45937.53306712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>45107</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>45988.51075231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>45988.51458333333</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>45988.51401620371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>45203</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>44491.60883101852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45264</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>44284</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>44342</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44711</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44628</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44525</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44679.4424537037</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44594</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44601.63337962963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44733</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44391</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>44516</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>44432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>44594</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>44691</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>44364</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
         <v>44476</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>44432</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>44678</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>44263</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>44330</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>44449</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>44264</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44698</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>44540</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>44636.62225694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>44371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44692</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44880.63131944444</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>44551</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>44722.38283564815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         <v>44571</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>44608.3350462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>44676.89392361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>44662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>44413</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>44572</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         <v>44714.36796296296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>44371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>44645</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>44272</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>44699</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>44683.85064814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44764</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         <v>44623.66508101852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44249</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6435,7 +6435,7 @@
         <v>44761.67310185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>44791</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>44607</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>45274.65821759259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>44847.42292824074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>44671</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44865.61626157408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>44826.31732638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>45232</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>44552.39164351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44847.4725462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45180</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>44340</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44637</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44739.47778935185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>44739</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>45110</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>45735.47672453704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>44559</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         <v>44610.6044212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>44610.60694444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>44610</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45516.65678240741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45639.52766203704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45019</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45736</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>44961</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>44662</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45072</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45705</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45370.39363425926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45019</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45749</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45628.62780092593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45219.3633912037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45638</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44875.32902777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>44936</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45453</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45506</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>44977.60398148148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>45467</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>44987</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>45617.60714120371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>45887.50710648148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>45735</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>45819.39668981481</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>45623.44805555556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>45274.65981481481</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>45887.50528935185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44999</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45595</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>45279</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>45279.73480324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9734,7 +9734,7 @@
         <v>45889.65506944444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>45456</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44635</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>45623</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>45890.57650462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>45251</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>45001</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>45833.66190972222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>45896.43211805556</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>45897.60268518519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>45617.6058449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10376,7 +10376,7 @@
         <v>45833</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>45125</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>45692</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         <v>44743</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>45279.74216435185</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>45903.42475694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>45839.55408564815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>45908.66902777777</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10837,7 +10837,7 @@
         <v>45908.6750925926</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>44816</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44340</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>45735.46513888889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>45908</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>45516.63484953704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>45119</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>45645</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>44645</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11355,7 +11355,7 @@
         <v>44648.55094907407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44880</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44880</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>45833.43606481481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>45219.45563657407</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>45833</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
         <v>44635.68010416667</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
         <v>44635.69003472223</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11811,7 +11811,7 @@
         <v>45735.47221064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
         <v>45860</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>45929.65755787037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>45929.66028935185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>45929.63734953704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>45926.65934027778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>45929.64620370371</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>45929.65053240741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45929.65461805555</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>45516.64833333333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         <v>45931.50824074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12443,7 +12443,7 @@
         <v>45874</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         <v>45257</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>45933.64113425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>45397</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44908</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>45174</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>45937.54346064815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>45832.6050462963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>45938.48452546296</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>45027.37611111111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>45027.37814814815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45595</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>44825.68005787037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45469</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45607</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>44999</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>45729.57048611111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13422,7 +13422,7 @@
         <v>45945.55697916666</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13479,7 +13479,7 @@
         <v>45945.55349537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>45947.63462962963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>45950.36666666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>45219.46137731482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>45761.58875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>45761.595</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>45761.62535879629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13883,7 +13883,7 @@
         <v>44958</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>44582</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>45953.53826388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45561</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44812</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44600.46858796296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45953.52658564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>45953.5362037037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>45953.54679398148</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>45414</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>45042</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45279.7046412037</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45442.72315972222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14634,7 +14634,7 @@
         <v>45553</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14696,7 +14696,7 @@
         <v>45966.4027199074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14753,7 +14753,7 @@
         <v>45160</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45160</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45929.64188657407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>44901</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44659.48399305555</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>44595.68612268518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45973.58966435185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15152,7 +15152,7 @@
         <v>45973.52245370371</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15209,7 +15209,7 @@
         <v>45974.60678240741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         <v>45979</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>45979</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15380,7 +15380,7 @@
         <v>45979</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>45980</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15494,7 +15494,7 @@
         <v>45988.51334490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44370</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45749</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44509</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45077.53309027778</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>44914.43560185185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45042</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45743</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>44717.72328703704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44824</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45219.45475694445</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>44680.71219907407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45560</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         <v>46006.64915509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16302,7 +16302,7 @@
         <v>45110</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16359,7 +16359,7 @@
         <v>44636</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16416,7 +16416,7 @@
         <v>45628</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16473,7 +16473,7 @@
         <v>45443.46515046297</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>44986.61635416667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         <v>44899.78981481482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44405</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>45019</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>44636</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>44636.63550925926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>44840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>44574</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44893</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>44664</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45674</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44935</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>46059</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>45110</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>45019</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>45019</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>46062.60050925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>45042</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17566,7 +17566,7 @@
         <v>44900.62505787037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>45761.60011574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>45952</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>45083</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>46066</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>45400.58168981481</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>46066</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>44606.61012731482</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>45761.62292824074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>44873.55695601852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18141,7 +18141,7 @@
         <v>45735</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18198,7 +18198,7 @@
         <v>46070.65644675926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44377</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44978.59603009259</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44523</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45532.44508101852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45579</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>44874.39711805555</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44901.38724537037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>46030.57869212963</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45218</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45264</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45042</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45457</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44265</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45553</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45639.53532407407</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>44601</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>44904.45761574074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44523</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>44623.65987268519</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>45033</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19425,7 +19425,7 @@
         <v>44556</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19482,7 +19482,7 @@
         <v>44253</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19539,7 +19539,7 @@
         <v>44253</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>44498</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>45603</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>44792</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19767,7 +19767,7 @@
         <v>45222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19824,7 +19824,7 @@
         <v>44874.61123842592</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44708.4474537037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44908</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44755</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44523</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20119,7 +20119,7 @@
         <v>44655.92976851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45169</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44342</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>44482.43167824074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45705.39998842592</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45713.69668981482</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>44658</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44903</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45281.69546296296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>44978</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45028</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>44336</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
         <v>45398</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20875,7 +20875,7 @@
         <v>45603.38747685185</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45366</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>44994</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>44537</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44722.38237268518</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45282.36827546296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>45296.45457175926</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45037</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21341,7 +21341,7 @@
         <v>45223</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21398,7 +21398,7 @@
         <v>44552.38523148148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45153</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>45448.33162037037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21626,7 +21626,7 @@
         <v>45196</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44249</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45397</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44657</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45638</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45378.57865740741</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45783</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45786</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45792.60494212963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45506</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45545</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45798.44658564815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45803.46421296296</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45743</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>45235</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22501,7 +22501,7 @@
         <v>45603</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22558,7 +22558,7 @@
         <v>45812</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         <v>45812</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
